--- a/Testdata/TC_127.xlsx
+++ b/Testdata/TC_127.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="My Series" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>8RwAAB+LCAAAAAAAAAOlWVtvI0kV/istP8GD3W07s7mo0itfkmDhSxQ7ZLIvqN1diYu0u0xXdRK/LdpFO1oYCYndQcAuCCQEQmJ3JZYVuwOa/7IaZ4Yn/gKnLn2znRn3MIomXedWp06dOuerCnr7duob1zhkhAb7pWrFKhk4cKlHgsv9UsQvytW3Sm/b6ODWxf6xEzpTzEHYAK2A7d0ysl+acD7bM82bm5vKTb1Cw0uzZllV82GvO3QneOqUScC4E7i4lGh5r9cq2ajlTXuYO57DHaW5X+oMO5UWJm4baD0ncC5xWGlGjASYsYOAE04wE5ohdjhutXs/UAuza5W3KlVkrtBTyWZEfE/J5SQVXcvBtHhEptiuWdWdsrVbtuoja3uvZu1VrcpufeedWDERRF2H8SEOr4krCUPuTGdS3dq16tY2fFnIXCsEttIA2Gjgeyf4mjDstbDvs0IRMfUGNlwOqy4WTHAvo6sNvbkLR6Ezm4wI93ExN05Om8Y40L6kRmx0SEPsQvzeyKU+vhmEOqyjWRe4owkJ+bztzAvbOmU4HMxEkIqp2qhNA97wcchPZ7DX2INUAIbNwwgj8x5mqtQmzIVvEkTYsy8cn2WVckx0RsMrNnNc3IdzbAobN4FPHQ8SjhPGiZtOusJAxyGdgUWYvEl97xCsauE1jMRyJ4AQi2mblF6l3q1jIrmrcn9hT6cOj8VX6Gg4oTeDwJ8PozFzQzLGXrsZS6/lIXEgtXYrYpxOwYuUhBQtQ+n1zDn8gzO4zEFt7JKp4x/7EEdm18FQjoAaEacXhLeoH00DFru1REVnsKgRvk0WmYzRAPY3EHGnQSeI5VWk17LyCif0JplzlSHjkCE3mBvv+CpjWbgNtHgHVzlyU8QqD4kPLSK7HRlqPjGGE4z52qxQHCSq4aFoOnZz3o+mYzhhYzhm13JWhsyUjyBVId3BL9uCRlKWPyPL2pM/4EfCRgeBd79czEQwXWYuW5TpJRKCNflN3wmugHpG+KTfiNeyhoNUBO6VX+UhOLwz35lLchKlLA11AtePPKxqQie4kCkqfFObei8brZC6cMxt5ATz0XwGpZmRPQ4f+yVo1nuMhwAHSrZLo4CHc1E8kKlFX6fDonEgJ3D8jXUuQvzjCFDI/DAK3Bb1Np/NU9E5DQjf3EMahaoibq4ioyeKY8TaWJQZWfc31neLrImFhcSnAZ7SgLibRxuCLLz33mAhLD5VG2tgdb42lvehtavOJ876xmohQEjodYWmaTBGXSKTVR8PL6Nv3nNk2vjCiXyAbxy67GVSe5fJqMGulmWyJHQa+nEFtAU4ZoCOXW9acQE/CARYcelUEEwApWdDZGblBQhy8UFw2XWCywhgRlJXlulJ/RUtchQ6ARPLSVDFUileL4TiOqXQjq2K1yCSiaCKFwUuMpfk0AhPZzR0/B4EhhzqtNOQCdBIz+ETPYLe5mM3DrKZqiZaec9ix18nJpuUWoY48LpMLhGlkFiLwuGpTEpDYpU9OJZ+y/HJOFRVNW7l63iwYSk+jOuvWFxBrBjvAdzFoPt+H88FQE8Hmi5TthozVAKLQmoPT7Z2alu7O6Akx0iuuAU+UZ9IfGkcUbgOBlPQMwAZY0COe8acw1FQwdENqIBeVgMdxrVdTt+DFM0R8nyAGJcEOseKXMJI5e0eAM+JP89IqtV1qQuCi188Wnz91d1HzxbffHL30VeLn/7pv//6zeLrLxePPn35wd+fP/1QrU8Jo5Ez9rF0aNTc2bHqW5BaCQmJeJoSEHuRyyXt/Fzi4GSM9HVODloHndZRtylLSEKM1VUXMcVNcU6jdDhUi5ATyV00481XIvYoLkl6nONmupItbm7XOC+d5d+nqGLx4umfXzz9273aOmApvKru7tY3QV9w890qW7V70Fc3V/a18INyrZYRXpJBJ6rmJ3HqeHa9au1Wd7atalK+vSSD1wkts7SlkXNpLukpUkshoiQFsuOYKfN+hBlP2OokZAYqiHf/+NnLzz/OSenoakreCjgnkYuYzIwH0nT/ZGQMB6cnrQNjdDAUeZLyMnLK+CuE9ezJecomzeppy6XUOqoy90rF5RmPQhrNVipFSl0jubZmrHKXNGVsVl1LeWvk9a598midgl5JOwWkyRNGloZyHEXK8HXtevyT5988e/7s/Rf//tXdk88Xj/+4+Od7OTt6tuR+D6kLByQ7TDIZqpjuGksUdDaUMb2yfpjpEpoorkPHlASc2bUHW/IqpIcIdKvCnPyNOlPoXNKyDBvQlyjoew47uOX6sNp9ZOYJ4OjMgaZJ0ytkQlB1OQ3vfz793d1vv7x78sXLD/66+PAvi58/efH09y8/+4M6SXcff3H3+DNduZeLu/RFXEwVljPkS4driBNmiBZsfPvuL42AcgOQgxHJKvPtu7/OGBOOSoyRWgZkljiSd2FFNKss9IyMK4kPOb1ERfXxlmhL9URCNyY6I246yTtlYQrgpSEZ3+mMyhHDBgVQ9F1YSV44Vd5UT6uoNnm8bdWqNc1V3ogljB2WCf2RT8eOb8QM+Y6wJJLTerVCKivnO+oOmo1uKqKcGIQeDkUaqg8UI0PRJjosHsWplqEAF/CbG/ni6WdFbJWVWM6UM1O/oVw0PPGgvv7FISeBWlEYKpQT6Ff5YTQDTBs/tt3Plw+QGRjbV5AzC2zTcaed58M4w4XmlmcLguTLCqVZqlp1mHiuUai0L0KTDoGXe7SEcOiHd4WerglsiSkKz0EY0nBt9Uk5sVgPADFUFDONeCIj91SBZy/dq5gQV7zkQ13g9AppG/uYF3uVNlPtHqDfN9WFvS+q2mED39PBLHaDSMKSGsg+zYtE+X9f5lWyNcIQwJJ4xyv8lB7fP0/g2lrQG7UUqSgucjC7fus+JCHjD0Ul0F+Kcp5QzhXqfCjuTepDjs/t+gNFAAEza93MuRkfXa7+QEL9LpmSgrc7Kz7feSMQy9lMwbJOsUwRraWPbwE0ZixAURz/CNqGeg4pYk0lLNTSRF88QTJyOeFFHdseO9jDY6vsjnGtvOVZO+VdjOvlahX+d9xazbIeiAdMbRwqB8E3BScx4w1L/3Bp/w8RFcab8RwAAA==</t>
+          <t>6h4AAB+LCAAAAAAAAAOlWVtvI0kV/istP8GD0912ZsaOKr3yLcHCjqPYIZN9Qe3uclyk3W26qpP4bRGgHS2MhMTuIGAXBBICIbG7EsuK3QHNf1mNM8MTf4FTl77Zzow7jCJN17nVqVOnzvmqjN65mXnaFQ4pCfz9krljlDTsO4FL/Iv9UsQmZfNh6R0LdW4c7B3boT3DDIQ10PLp3g0l+6UpY/M9Xb++vt65ru4E4YVeMQxTf9zvDZ0pntll4lNm+w4uJVru27VKFmq5sz5mtmszW2rul7rD7k4LE6cNtL7t2xc43GlGlPiY0o7PCCOYcs0Q2wy32v3vyYVZlZ2HOybS1+ipZDMinivlcpKSruRgWjwiM2xVjIpRNmrlijEyq3vG7p5Z36maj96NFRNB1LMpG+LwijiCMGT2bC7UjVrFMKvGrllH+kYhsJUGwEIDzz3BV4Rit4U9jxaKiK42sOEwWHWxYBpIz+gqQ/d34TC059MRYR4uqn4QhNiBQN1r7iN8PQhV/EbzHnBHUxKyRdteFLZ1SnE4mPNoFFO1UDvwWcPDITudw6ZiF/YcGBYLI4z0O5ipUptQB76JH2HXmtgezSrlmOgsCC/p3HbwERxYndu49r3AdiGzGKGMOOmkawx0HAZzsAiTNwPPPQCrSngDI7Hc9SHEfNpmEFym3m1iIpEDIhtgT2c2i8XX6Gg4Da4HvrcYRmPqhGSM3XYzlt7IQ/zkKe1WRFkwAy9SEpK0DKXf1xfwDw7bKge1sUNmtnfsQRypVQVDOQJqRCyYENYKvGjm09itFSo6g0WN8E2yyGSMBrC/Po974Hf9WF5GeiMrr3ASXCdzrjNEHDLkBnXiHV9nrAq3gRbv4DpHbApf5QHxoBdktyNDzSfGcIox25gVkoN42Tvg3cVqLo6i2RhO2BiO2ZWYlSI95SNIVUh38MsyoGOUxd/IMPbEH/iRsFHHd++Wi5kIpsvMZZnAWyEhWJPX9Gz/EqhnhE2PGvFaNnCQjMCd8us8BId37tkLQU6ilKWhru94kYtlTej6E5Gi3De5qXey0RqpB8fcQra/GC3mUIMp2WPwsV+CrrxHWQh9v2Q5QeSzcMGLB9KV6Nt0aDT2xQS2t7XOJMQ/jABuLA4i32kF7vazuTI6pz5h23sYRKGsiNuriOjx4hjRNuZlRtT9rfWdImuiYSHxmY9ngU+c7aMNQebeu/dYCI1P1dYaWJ6vreU9aO2y8/GzvrVaCFgRel2haRqUBg4RyaqOh5vR1+84Mm08sSMPcBqDLnuR1N5VMmrQy1WZLAmdhl5cAS2OginAYMed7TiAHzjU23GCGSfogD7PhkjPynMQ5OCOf9Gz/YsIYEZSV1bpSf3lLXIU2j7ly0lQxUop3iyE4jol0Y4li9cgEokgi1cAXKSvyKERns2D0Pb6EBhyoNJOQSZAI32bTdUIepuHnTjIeqqaaOU9ix1/m5hoUnIZ/MCrMrlCFEJ8LRJwpzIpDfFV9uFYei3bI+NQVtW4lW/iwYal+DCuv3xxBbFivAdw6YLu+1284Eg8HSi6SFkzZsgE5oXUGp7s1iq79RooiTESK26BT4FHBL7UDgO49/kz0NMAGWNAjnvagsFRkMFRDaiAXlYDHcS1XUzfhxTNEfJ8gBgXBDrHmlzCSOWtPgDPqbfISMrV9QIHBJe/eLL86svbD18sv/749sMvlz/903//9ZvlV18sn3zy+v2/v3z+gVyfFEYje+xh4dCoWasZ1V1IrYSEeDx1AYjdyGGCdn4ucHAyRureJgatTrd12GuKEpIQY3XZRXR+JVwEUTocykWIicQu6vHmSxFrFJckNc5xM13J4le0K5yXzvLvUpSxePX8z6+e/+1ObRWwFF6Z9Xp1G/QF19zdslG5A331cmVfCT8oVyoZ4RUZdCJrfhKnrmtVTaNu1h4ZZlK+3SSDNwmtspSlkX2hr+hJUksioiQFsuOYKfJ+hClL2PIkZAYyiLf/+Nnrzz7KSanoKkreCjgnkAufTI8HwvTRyUgbDk5PWh1t1BnyPEl5GTlp/A3CavbkPGWTZv205VJqE1Wae6Pi6oyHYRDN1ypFSt0gubFmrHNXNEVs1l1LeRvk1a59/GSTglpJOwWk1slpUxv7SZIJGspxJCnDV7Xr6Y9efv3i5YufvPr3r26ffbZ8+sflP3+cs6NmS+73kLpwQLLDJJOhiqmusUJBZ0MR00vj+5kuoYj8OnQcEJ9Rq/JgV1yF1BCBrsnNif9RdwadS1gWYQP6CgV9x6adG6YOq3WE9DwBHJ3b0DSD9AqZEGRdTsP7n09+d/vbL26fff76/b8uP/jL8ufPXj3//etP/yBP0u1Hn98+/VRV7tXiLnzhF1OJ5TTx0uFo/IRpvAVr37z3S80PmAbIQYtElfnmvV9njHFHBcZILQMySxzJu7AmmlXmelrGlcSHnF6iIvt4i7elaiKhGlMwJ046ybtlbgrgpSYY3+qOyhHFWgCg6NuwkrxwqrytnlKRbfL4kVExK4orveFLGNs0E/pDLxjbnhYzxDvCikhO680KqayY77A3aDZ6qYh0YhC6OORpKD9Ql8bYME6vDAW4gNmcyOPPPWti6ywUf2VKmK7eTSYNl7+Wb35lyEmgVhSGEtn46sl9GM0Bx8YPbHfzxaNjBroeSZiZBbPpuNvO82Gc4UJDy7M5QfBFVVIsWaG6lD/RSCR6xEOTDoGXe6iEcKhXdYmYrghsg86LTScMg3BjxUk5sVgfQDBUET2NeCKj8yklYHbTvYoJcZVLPuSlTa0waGMPs8JPzrF2HxDvfXVh74uqdunAc1Uwi90akrCkBrLv7jxRijrTCEOAQvyVrvBDeY/4l91iq7cctz4eG7VJrVKxa2atNq5NTOzUH1bwbr1aBeQmjfJLJDfBbyH8ClZsEjCTV0+vyydwgS5oTQZYKPIrJURKHEhV2JMxOiAhZY95iVJfknKeUM4lHH7M/ZMfYnxuVR9IAgjo2cn0nNdxfWHyJ5rA65EZKXjtNOIilDcCaTCfS7xYdEOh5x3hG0CzGQtQrcc/gH4m32mKWJOnCop8oh/bGkbjwub0WPkY+Dyx7qfdcQGY3V9b/OBBvP/DAYG87mui61NyMWVF97UC1z/8EFfKlYnjlOFw4jJ043HZtSd10zAmVfdBhT9MK+PQHQi+LjgJ7ymERrZXXE9f+cXa+h9sIRJE6h4AAA==</t>
         </r>
       </text>
     </comment>
@@ -42,7 +42,7 @@
     <numFmt numFmtId="164" formatCode="MM/yyyy"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="164" formatCode="MM/yyyy"/>
-    <numFmt numFmtId="166" formatCode="###0.000"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -523,7 +523,7 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>Function Information</t>
+          <t>Function Description</t>
         </is>
       </c>
       <c r="B11" s="2"/>
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="B20" s="2">
-        <v>-0.3785388757796309</v>
+        <v>-0.3785388757796306</v>
       </c>
     </row>
     <row r="21">
@@ -758,4 +758,37 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<MetadataExcelFile xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema">
+  <MetadataLink>
+    <MetadataLink>
+      <SheetId>My Series</SheetId>
+      <LinkPosRow>1</LinkPosRow>
+      <LinkPosCol>1</LinkPosCol>
+      <MetaDataSeries>
+        <MetadataSeries>
+          <InitRow>1</InitRow>
+          <InitCol>2</InitCol>
+          <EndRow>36</EndRow>
+          <EndCol>2</EndCol>
+          <Name>Consolidated Government Revenue: ytd</Name>
+          <DisplayName>Consolidated Government Revenue: ytd</DisplayName>
+          <SeriesId>310918701</SeriesId>
+          <Code>SR4824980</Code>
+          <Order>0</Order>
+        </MetadataSeries>
+      </MetaDataSeries>
+    </MetadataLink>
+  </MetadataLink>
+</MetadataExcelFile>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8A2F0708-809B-411E-8C8B-2608A1B9F0FF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Testdata/TC_127.xlsx
+++ b/Testdata/TC_127.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="My Series" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>6h4AAB+LCAAAAAAAAAOlWVtvI0kV/istP8GD0912ZsaOKr3yLcHCjqPYIZN9Qe3uclyk3W26qpP4bRGgHS2MhMTuIGAXBBICIbG7EsuK3QHNf1mNM8MTf4FTl77Zzow7jCJN17nVqVOnzvmqjN65mXnaFQ4pCfz9krljlDTsO4FL/Iv9UsQmZfNh6R0LdW4c7B3boT3DDIQ10PLp3g0l+6UpY/M9Xb++vt65ru4E4YVeMQxTf9zvDZ0pntll4lNm+w4uJVru27VKFmq5sz5mtmszW2rul7rD7k4LE6cNtL7t2xc43GlGlPiY0o7PCCOYcs0Q2wy32v3vyYVZlZ2HOybS1+ipZDMinivlcpKSruRgWjwiM2xVjIpRNmrlijEyq3vG7p5Z36maj96NFRNB1LMpG+LwijiCMGT2bC7UjVrFMKvGrllH+kYhsJUGwEIDzz3BV4Rit4U9jxaKiK42sOEwWHWxYBpIz+gqQ/d34TC059MRYR4uqn4QhNiBQN1r7iN8PQhV/EbzHnBHUxKyRdteFLZ1SnE4mPNoFFO1UDvwWcPDITudw6ZiF/YcGBYLI4z0O5ipUptQB76JH2HXmtgezSrlmOgsCC/p3HbwERxYndu49r3AdiGzGKGMOOmkawx0HAZzsAiTNwPPPQCrSngDI7Hc9SHEfNpmEFym3m1iIpEDIhtgT2c2i8XX6Gg4Da4HvrcYRmPqhGSM3XYzlt7IQ/zkKe1WRFkwAy9SEpK0DKXf1xfwDw7bKge1sUNmtnfsQRypVQVDOQJqRCyYENYKvGjm09itFSo6g0WN8E2yyGSMBrC/Po974Hf9WF5GeiMrr3ASXCdzrjNEHDLkBnXiHV9nrAq3gRbv4DpHbApf5QHxoBdktyNDzSfGcIox25gVkoN42Tvg3cVqLo6i2RhO2BiO2ZWYlSI95SNIVUh38MsyoGOUxd/IMPbEH/iRsFHHd++Wi5kIpsvMZZnAWyEhWJPX9Gz/EqhnhE2PGvFaNnCQjMCd8us8BId37tkLQU6ilKWhru94kYtlTej6E5Gi3De5qXey0RqpB8fcQra/GC3mUIMp2WPwsV+CrrxHWQh9v2Q5QeSzcMGLB9KV6Nt0aDT2xQS2t7XOJMQ/jABuLA4i32kF7vazuTI6pz5h23sYRKGsiNuriOjx4hjRNuZlRtT9rfWdImuiYSHxmY9ngU+c7aMNQebeu/dYCI1P1dYaWJ6vreU9aO2y8/GzvrVaCFgRel2haRqUBg4RyaqOh5vR1+84Mm08sSMPcBqDLnuR1N5VMmrQy1WZLAmdhl5cAS2OginAYMed7TiAHzjU23GCGSfogD7PhkjPynMQ5OCOf9Gz/YsIYEZSV1bpSf3lLXIU2j7ly0lQxUop3iyE4jol0Y4li9cgEokgi1cAXKSvyKERns2D0Pb6EBhyoNJOQSZAI32bTdUIepuHnTjIeqqaaOU9ix1/m5hoUnIZ/MCrMrlCFEJ8LRJwpzIpDfFV9uFYei3bI+NQVtW4lW/iwYal+DCuv3xxBbFivAdw6YLu+1284Eg8HSi6SFkzZsgE5oXUGp7s1iq79RooiTESK26BT4FHBL7UDgO49/kz0NMAGWNAjnvagsFRkMFRDaiAXlYDHcS1XUzfhxTNEfJ8gBgXBDrHmlzCSOWtPgDPqbfISMrV9QIHBJe/eLL86svbD18sv/749sMvlz/903//9ZvlV18sn3zy+v2/v3z+gVyfFEYje+xh4dCoWasZ1V1IrYSEeDx1AYjdyGGCdn4ucHAyRureJgatTrd12GuKEpIQY3XZRXR+JVwEUTocykWIicQu6vHmSxFrFJckNc5xM13J4le0K5yXzvLvUpSxePX8z6+e/+1ObRWwFF6Z9Xp1G/QF19zdslG5A331cmVfCT8oVyoZ4RUZdCJrfhKnrmtVTaNu1h4ZZlK+3SSDNwmtspSlkX2hr+hJUksioiQFsuOYKfJ+hClL2PIkZAYyiLf/+Nnrzz7KSanoKkreCjgnkAufTI8HwvTRyUgbDk5PWh1t1BnyPEl5GTlp/A3CavbkPGWTZv205VJqE1Wae6Pi6oyHYRDN1ypFSt0gubFmrHNXNEVs1l1LeRvk1a59/GSTglpJOwWk1slpUxv7SZIJGspxJCnDV7Xr6Y9efv3i5YufvPr3r26ffbZ8+sflP3+cs6NmS+73kLpwQLLDJJOhiqmusUJBZ0MR00vj+5kuoYj8OnQcEJ9Rq/JgV1yF1BCBrsnNif9RdwadS1gWYQP6CgV9x6adG6YOq3WE9DwBHJ3b0DSD9AqZEGRdTsP7n09+d/vbL26fff76/b8uP/jL8ufPXj3//etP/yBP0u1Hn98+/VRV7tXiLnzhF1OJ5TTx0uFo/IRpvAVr37z3S80PmAbIQYtElfnmvV9njHFHBcZILQMySxzJu7AmmlXmelrGlcSHnF6iIvt4i7elaiKhGlMwJ046ybtlbgrgpSYY3+qOyhHFWgCg6NuwkrxwqrytnlKRbfL4kVExK4orveFLGNs0E/pDLxjbnhYzxDvCikhO680KqayY77A3aDZ6qYh0YhC6OORpKD9Ql8bYME6vDAW4gNmcyOPPPWti6ywUf2VKmK7eTSYNl7+Wb35lyEmgVhSGEtn46sl9GM0Bx8YPbHfzxaNjBroeSZiZBbPpuNvO82Gc4UJDy7M5QfBFVVIsWaG6lD/RSCR6xEOTDoGXe6iEcKhXdYmYrghsg86LTScMg3BjxUk5sVgfQDBUET2NeCKj8yklYHbTvYoJcZVLPuSlTa0waGMPs8JPzrF2HxDvfXVh74uqdunAc1Uwi90akrCkBrLv7jxRijrTCEOAQvyVrvBDeY/4l91iq7cctz4eG7VJrVKxa2atNq5NTOzUH1bwbr1aBeQmjfJLJDfBbyH8ClZsEjCTV0+vyydwgS5oTQZYKPIrJURKHEhV2JMxOiAhZY95iVJfknKeUM4lHH7M/ZMfYnxuVR9IAgjo2cn0nNdxfWHyJ5rA65EZKXjtNOIilDcCaTCfS7xYdEOh5x3hG0CzGQtQrcc/gH4m32mKWJOnCop8oh/bGkbjwub0WPkY+Dyx7qfdcQGY3V9b/OBBvP/DAYG87mui61NyMWVF97UC1z/8EFfKlYnjlOFw4jJ043HZtSd10zAmVfdBhT9MK+PQHQi+LjgJ7ymERrZXXE9f+cXa+h9sIRJE6h4AAA==</t>
+          <t>8RwAAB+LCAAAAAAAAAOlWVtvI0kV/istP8GD3W07s7mo0itfkmDhSxQ7ZLIvqN1diYu0u0xXdRK/LdpFO1oYCYndQcAuCCQEQmJ3JZYVuwOa/7IaZ4Yn/gKnLn2znRn3MIomXedWp06dOuerCnr7duob1zhkhAb7pWrFKhk4cKlHgsv9UsQvytW3Sm/b6ODWxf6xEzpTzEHYAK2A7d0ysl+acD7bM82bm5vKTb1Cw0uzZllV82GvO3QneOqUScC4E7i4lGh5r9cq2ajlTXuYO57DHaW5X+oMO5UWJm4baD0ncC5xWGlGjASYsYOAE04wE5ohdjhutXs/UAuza5W3KlVkrtBTyWZEfE/J5SQVXcvBtHhEptiuWdWdsrVbtuoja3uvZu1VrcpufeedWDERRF2H8SEOr4krCUPuTGdS3dq16tY2fFnIXCsEttIA2Gjgeyf4mjDstbDvs0IRMfUGNlwOqy4WTHAvo6sNvbkLR6Ezm4wI93ExN05Om8Y40L6kRmx0SEPsQvzeyKU+vhmEOqyjWRe4owkJ+bztzAvbOmU4HMxEkIqp2qhNA97wcchPZ7DX2INUAIbNwwgj8x5mqtQmzIVvEkTYsy8cn2WVckx0RsMrNnNc3IdzbAobN4FPHQ8SjhPGiZtOusJAxyGdgUWYvEl97xCsauE1jMRyJ4AQi2mblF6l3q1jIrmrcn9hT6cOj8VX6Gg4oTeDwJ8PozFzQzLGXrsZS6/lIXEgtXYrYpxOwYuUhBQtQ+n1zDn8gzO4zEFt7JKp4x/7EEdm18FQjoAaEacXhLeoH00DFru1REVnsKgRvk0WmYzRAPY3EHGnQSeI5VWk17LyCif0JplzlSHjkCE3mBvv+CpjWbgNtHgHVzlyU8QqD4kPLSK7HRlqPjGGE4z52qxQHCSq4aFoOnZz3o+mYzhhYzhm13JWhsyUjyBVId3BL9uCRlKWPyPL2pM/4EfCRgeBd79czEQwXWYuW5TpJRKCNflN3wmugHpG+KTfiNeyhoNUBO6VX+UhOLwz35lLchKlLA11AtePPKxqQie4kCkqfFObei8brZC6cMxt5ATz0XwGpZmRPQ4f+yVo1nuMhwAHSrZLo4CHc1E8kKlFX6fDonEgJ3D8jXUuQvzjCFDI/DAK3Bb1Np/NU9E5DQjf3EMahaoibq4ioyeKY8TaWJQZWfc31neLrImFhcSnAZ7SgLibRxuCLLz33mAhLD5VG2tgdb42lvehtavOJ876xmohQEjodYWmaTBGXSKTVR8PL6Nv3nNk2vjCiXyAbxy67GVSe5fJqMGulmWyJHQa+nEFtAU4ZoCOXW9acQE/CARYcelUEEwApWdDZGblBQhy8UFw2XWCywhgRlJXlulJ/RUtchQ6ARPLSVDFUileL4TiOqXQjq2K1yCSiaCKFwUuMpfk0AhPZzR0/B4EhhzqtNOQCdBIz+ETPYLe5mM3DrKZqiZaec9ix18nJpuUWoY48LpMLhGlkFiLwuGpTEpDYpU9OJZ+y/HJOFRVNW7l63iwYSk+jOuvWFxBrBjvAdzFoPt+H88FQE8Hmi5TthozVAKLQmoPT7Z2alu7O6Akx0iuuAU+UZ9IfGkcUbgOBlPQMwAZY0COe8acw1FQwdENqIBeVgMdxrVdTt+DFM0R8nyAGJcEOseKXMJI5e0eAM+JP89IqtV1qQuCi188Wnz91d1HzxbffHL30VeLn/7pv//6zeLrLxePPn35wd+fP/1QrU8Jo5Ez9rF0aNTc2bHqW5BaCQmJeJoSEHuRyyXt/Fzi4GSM9HVODloHndZRtylLSEKM1VUXMcVNcU6jdDhUi5ATyV00481XIvYoLkl6nONmupItbm7XOC+d5d+nqGLx4umfXzz9273aOmApvKru7tY3QV9w890qW7V70Fc3V/a18INyrZYRXpJBJ6rmJ3HqeHa9au1Wd7atalK+vSSD1wkts7SlkXNpLukpUkshoiQFsuOYKfN+hBlP2OokZAYqiHf/+NnLzz/OSenoakreCjgnkYuYzIwH0nT/ZGQMB6cnrQNjdDAUeZLyMnLK+CuE9ezJecomzeppy6XUOqoy90rF5RmPQhrNVipFSl0jubZmrHKXNGVsVl1LeWvk9a598midgl5JOwWkyRNGloZyHEXK8HXtevyT5988e/7s/Rf//tXdk88Xj/+4+Od7OTt6tuR+D6kLByQ7TDIZqpjuGksUdDaUMb2yfpjpEpoorkPHlASc2bUHW/IqpIcIdKvCnPyNOlPoXNKyDBvQlyjoew47uOX6sNp9ZOYJ4OjMgaZJ0ytkQlB1OQ3vfz793d1vv7x78sXLD/66+PAvi58/efH09y8/+4M6SXcff3H3+DNduZeLu/RFXEwVljPkS4driBNmiBZsfPvuL42AcgOQgxHJKvPtu7/OGBOOSoyRWgZkljiSd2FFNKss9IyMK4kPOb1ERfXxlmhL9URCNyY6I246yTtlYQrgpSEZ3+mMyhHDBgVQ9F1YSV44Vd5UT6uoNnm8bdWqNc1V3ogljB2WCf2RT8eOb8QM+Y6wJJLTerVCKivnO+oOmo1uKqKcGIQeDkUaqg8UI0PRJjosHsWplqEAF/CbG/ni6WdFbJWVWM6UM1O/oVw0PPGgvv7FISeBWlEYKpQT6Ff5YTQDTBs/tt3Plw+QGRjbV5AzC2zTcaed58M4w4XmlmcLguTLCqVZqlp1mHiuUai0L0KTDoGXe7SEcOiHd4WerglsiSkKz0EY0nBt9Uk5sVgPADFUFDONeCIj91SBZy/dq5gQV7zkQ13g9AppG/uYF3uVNlPtHqDfN9WFvS+q2mED39PBLHaDSMKSGsg+zYtE+X9f5lWyNcIQwJJ4xyv8lB7fP0/g2lrQG7UUqSgucjC7fus+JCHjD0Ul0F+Kcp5QzhXqfCjuTepDjs/t+gNFAAEza93MuRkfXa7+QEL9LpmSgrc7Kz7feSMQy9lMwbJOsUwRraWPbwE0ZixAURz/CNqGeg4pYk0lLNTSRF88QTJyOeFFHdseO9jDY6vsjnGtvOVZO+VdjOvlahX+d9xazbIeiAdMbRwqB8E3BScx4w1L/3Bp/w8RFcab8RwAAA==</t>
         </r>
       </text>
     </comment>
@@ -42,7 +42,7 @@
     <numFmt numFmtId="164" formatCode="MM/yyyy"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="164" formatCode="MM/yyyy"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="###0.000"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -523,7 +523,7 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>Function Description</t>
+          <t>Function Information</t>
         </is>
       </c>
       <c r="B11" s="2"/>
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="B20" s="2">
-        <v>-0.3785388757796306</v>
+        <v>-0.3785388757796309</v>
       </c>
     </row>
     <row r="21">
@@ -758,37 +758,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<MetadataExcelFile xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema">
-  <MetadataLink>
-    <MetadataLink>
-      <SheetId>My Series</SheetId>
-      <LinkPosRow>1</LinkPosRow>
-      <LinkPosCol>1</LinkPosCol>
-      <MetaDataSeries>
-        <MetadataSeries>
-          <InitRow>1</InitRow>
-          <InitCol>2</InitCol>
-          <EndRow>36</EndRow>
-          <EndCol>2</EndCol>
-          <Name>Consolidated Government Revenue: ytd</Name>
-          <DisplayName>Consolidated Government Revenue: ytd</DisplayName>
-          <SeriesId>310918701</SeriesId>
-          <Code>SR4824980</Code>
-          <Order>0</Order>
-        </MetadataSeries>
-      </MetaDataSeries>
-    </MetadataLink>
-  </MetadataLink>
-</MetadataExcelFile>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8A2F0708-809B-411E-8C8B-2608A1B9F0FF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>